--- a/output/Table 2.xlsx
+++ b/output/Table 2.xlsx
@@ -6,14 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Part2" sheetId="1" r:id="rId2"/>
+    <sheet name="Part1" sheetId="1" r:id="rId2"/>
+    <sheet name="Part2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="42">
   <si>
     <t>Measure</t>
   </si>
@@ -40,6 +41,54 @@
   </si>
   <si>
     <t>Cause</t>
+  </si>
+  <si>
+    <t>Communicable, maternal, neonatal, and nutritional diseases</t>
+  </si>
+  <si>
+    <t>Non-communicable diseases</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Lower UL</t>
+  </si>
+  <si>
+    <t>Upper UL</t>
+  </si>
+  <si>
+    <t>cause_id_new</t>
+  </si>
+  <si>
+    <t>Sex-Year group</t>
+  </si>
+  <si>
+    <t>Both sexes 1990</t>
+  </si>
+  <si>
+    <t>Both sexes 2019</t>
+  </si>
+  <si>
+    <t>Females 1990</t>
+  </si>
+  <si>
+    <t>Females 2019</t>
+  </si>
+  <si>
+    <t>Males 1990</t>
+  </si>
+  <si>
+    <t>Males 2019</t>
+  </si>
+  <si>
+    <t>rank of mean DALYs within Sex-Year group</t>
   </si>
   <si>
     <t>Maternal and neonatal disorders</t>
@@ -92,45 +141,6 @@
   <si>
     <t>Self-harm and interpersonal violence</t>
   </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Lower UL</t>
-  </si>
-  <si>
-    <t>Upper UL</t>
-  </si>
-  <si>
-    <t>cause_id_new</t>
-  </si>
-  <si>
-    <t>group(Sex Year)</t>
-  </si>
-  <si>
-    <t>Both sexes 1990</t>
-  </si>
-  <si>
-    <t>Both sexes 2019</t>
-  </si>
-  <si>
-    <t>Females 1990</t>
-  </si>
-  <si>
-    <t>Females 2019</t>
-  </si>
-  <si>
-    <t>Males 1990</t>
-  </si>
-  <si>
-    <t>Males 2019</t>
-  </si>
-  <si>
-    <t>rank of (-Value)    by Sex_Year</t>
-  </si>
 </sst>
 </file>
 
@@ -173,6 +183,680 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K19"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0">
+        <v>1990</v>
+      </c>
+      <c r="F2" s="0">
+        <v>1510.0999755859375</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1370.300048828125</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1669.9000244140625</v>
+      </c>
+      <c r="I2" s="0">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1990</v>
+      </c>
+      <c r="F3" s="0">
+        <v>21940.69921875</v>
+      </c>
+      <c r="G3" s="0">
+        <v>19303.5</v>
+      </c>
+      <c r="H3" s="0">
+        <v>24979.5</v>
+      </c>
+      <c r="I3" s="0">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="0">
+        <v>1990</v>
+      </c>
+      <c r="F4" s="0">
+        <v>3187.10009765625</v>
+      </c>
+      <c r="G4" s="0">
+        <v>2901.39990234375</v>
+      </c>
+      <c r="H4" s="0">
+        <v>3565.800048828125</v>
+      </c>
+      <c r="I4" s="0">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F5" s="0">
+        <v>1176.199951171875</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1029.199951171875</v>
+      </c>
+      <c r="H5" s="0">
+        <v>1345.699951171875</v>
+      </c>
+      <c r="I5" s="0">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F6" s="0">
+        <v>23641.30078125</v>
+      </c>
+      <c r="G6" s="0">
+        <v>20598.099609375</v>
+      </c>
+      <c r="H6" s="0">
+        <v>27092.900390625</v>
+      </c>
+      <c r="I6" s="0">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F7" s="0">
+        <v>2518.39990234375</v>
+      </c>
+      <c r="G7" s="0">
+        <v>2170.39990234375</v>
+      </c>
+      <c r="H7" s="0">
+        <v>2959.5</v>
+      </c>
+      <c r="I7" s="0">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0">
+        <v>1990</v>
+      </c>
+      <c r="F8" s="0">
+        <v>1278.800048828125</v>
+      </c>
+      <c r="G8" s="0">
+        <v>1140.0999755859375</v>
+      </c>
+      <c r="H8" s="0">
+        <v>1451.4000244140625</v>
+      </c>
+      <c r="I8" s="0">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0">
+        <v>1990</v>
+      </c>
+      <c r="F9" s="0">
+        <v>21473.900390625</v>
+      </c>
+      <c r="G9" s="0">
+        <v>18457.099609375</v>
+      </c>
+      <c r="H9" s="0">
+        <v>24979</v>
+      </c>
+      <c r="I9" s="0">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="0">
+        <v>1990</v>
+      </c>
+      <c r="F10" s="0">
+        <v>2013.699951171875</v>
+      </c>
+      <c r="G10" s="0">
+        <v>1751.800048828125</v>
+      </c>
+      <c r="H10" s="0">
+        <v>2336.10009765625</v>
+      </c>
+      <c r="I10" s="0">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F11" s="0">
+        <v>1132.199951171875</v>
+      </c>
+      <c r="G11" s="0">
+        <v>990.0999755859375</v>
+      </c>
+      <c r="H11" s="0">
+        <v>1300</v>
+      </c>
+      <c r="I11" s="0">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F12" s="0">
+        <v>23544.19921875</v>
+      </c>
+      <c r="G12" s="0">
+        <v>20114.900390625</v>
+      </c>
+      <c r="H12" s="0">
+        <v>27456.400390625</v>
+      </c>
+      <c r="I12" s="0">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F13" s="0">
+        <v>1969.5</v>
+      </c>
+      <c r="G13" s="0">
+        <v>1630.300048828125</v>
+      </c>
+      <c r="H13" s="0">
+        <v>2412</v>
+      </c>
+      <c r="I13" s="0">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="0">
+        <v>1990</v>
+      </c>
+      <c r="F14" s="0">
+        <v>1747.5999755859375</v>
+      </c>
+      <c r="G14" s="0">
+        <v>1605.0999755859375</v>
+      </c>
+      <c r="H14" s="0">
+        <v>1908.9000244140625</v>
+      </c>
+      <c r="I14" s="0">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="0">
+        <v>1990</v>
+      </c>
+      <c r="F15" s="0">
+        <v>22420.099609375</v>
+      </c>
+      <c r="G15" s="0">
+        <v>20250.30078125</v>
+      </c>
+      <c r="H15" s="0">
+        <v>24862.69921875</v>
+      </c>
+      <c r="I15" s="0">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="0">
+        <v>1990</v>
+      </c>
+      <c r="F16" s="0">
+        <v>4392</v>
+      </c>
+      <c r="G16" s="0">
+        <v>4060.5</v>
+      </c>
+      <c r="H16" s="0">
+        <v>4816.39990234375</v>
+      </c>
+      <c r="I16" s="0">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F17" s="0">
+        <v>1221.5</v>
+      </c>
+      <c r="G17" s="0">
+        <v>1075.300048828125</v>
+      </c>
+      <c r="H17" s="0">
+        <v>1392.199951171875</v>
+      </c>
+      <c r="I17" s="0">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F18" s="0">
+        <v>23741.599609375</v>
+      </c>
+      <c r="G18" s="0">
+        <v>21038.599609375</v>
+      </c>
+      <c r="H18" s="0">
+        <v>26714.5</v>
+      </c>
+      <c r="I18" s="0">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F19" s="0">
+        <v>3085.10009765625</v>
+      </c>
+      <c r="G19" s="0">
+        <v>2729.89990234375</v>
+      </c>
+      <c r="H19" s="0">
+        <v>3547.39990234375</v>
+      </c>
+      <c r="I19" s="0">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="0">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K103"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -190,25 +874,25 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -222,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E2" s="0">
         <v>1990</v>
@@ -240,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K2" s="0">
         <v>15</v>
@@ -257,7 +941,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E3" s="0">
         <v>1990</v>
@@ -275,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K3" s="0">
         <v>17</v>
@@ -292,7 +976,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E4" s="0">
         <v>1990</v>
@@ -310,7 +994,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K4" s="0">
         <v>2</v>
@@ -327,7 +1011,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E5" s="0">
         <v>1990</v>
@@ -345,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0">
         <v>1</v>
@@ -362,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E6" s="0">
         <v>1990</v>
@@ -380,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K6" s="0">
         <v>9</v>
@@ -397,7 +1081,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E7" s="0">
         <v>1990</v>
@@ -415,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K7" s="0">
         <v>11</v>
@@ -432,7 +1116,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E8" s="0">
         <v>1990</v>
@@ -450,7 +1134,7 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K8" s="0">
         <v>6</v>
@@ -467,7 +1151,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E9" s="0">
         <v>1990</v>
@@ -485,7 +1169,7 @@
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K9" s="0">
         <v>4</v>
@@ -502,7 +1186,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E10" s="0">
         <v>1990</v>
@@ -520,7 +1204,7 @@
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K10" s="0">
         <v>14</v>
@@ -537,7 +1221,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E11" s="0">
         <v>1990</v>
@@ -555,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K11" s="0">
         <v>12</v>
@@ -572,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E12" s="0">
         <v>1990</v>
@@ -590,7 +1274,7 @@
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K12" s="0">
         <v>13</v>
@@ -607,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E13" s="0">
         <v>1990</v>
@@ -625,7 +1309,7 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K13" s="0">
         <v>16</v>
@@ -642,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E14" s="0">
         <v>1990</v>
@@ -660,7 +1344,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K14" s="0">
         <v>3</v>
@@ -677,7 +1361,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E15" s="0">
         <v>1990</v>
@@ -695,7 +1379,7 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K15" s="0">
         <v>5</v>
@@ -712,7 +1396,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E16" s="0">
         <v>1990</v>
@@ -730,7 +1414,7 @@
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K16" s="0">
         <v>8</v>
@@ -747,7 +1431,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E17" s="0">
         <v>1990</v>
@@ -765,7 +1449,7 @@
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K17" s="0">
         <v>7</v>
@@ -782,7 +1466,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E18" s="0">
         <v>1990</v>
@@ -800,7 +1484,7 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K18" s="0">
         <v>10</v>
@@ -817,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E19" s="0">
         <v>2019</v>
@@ -835,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K19" s="0">
         <v>17</v>
@@ -852,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E20" s="0">
         <v>2019</v>
@@ -870,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K20" s="0">
         <v>16</v>
@@ -887,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E21" s="0">
         <v>2019</v>
@@ -905,7 +1589,7 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K21" s="0">
         <v>1</v>
@@ -922,7 +1606,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E22" s="0">
         <v>2019</v>
@@ -940,7 +1624,7 @@
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K22" s="0">
         <v>2</v>
@@ -957,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E23" s="0">
         <v>2019</v>
@@ -975,7 +1659,7 @@
         <v>5</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K23" s="0">
         <v>8</v>
@@ -992,7 +1676,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E24" s="0">
         <v>2019</v>
@@ -1010,7 +1694,7 @@
         <v>6</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K24" s="0">
         <v>11</v>
@@ -1027,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E25" s="0">
         <v>2019</v>
@@ -1045,7 +1729,7 @@
         <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K25" s="0">
         <v>4</v>
@@ -1062,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E26" s="0">
         <v>2019</v>
@@ -1080,7 +1764,7 @@
         <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K26" s="0">
         <v>5</v>
@@ -1097,7 +1781,7 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E27" s="0">
         <v>2019</v>
@@ -1115,7 +1799,7 @@
         <v>9</v>
       </c>
       <c r="J27" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K27" s="0">
         <v>10</v>
@@ -1132,7 +1816,7 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E28" s="0">
         <v>2019</v>
@@ -1150,7 +1834,7 @@
         <v>10</v>
       </c>
       <c r="J28" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K28" s="0">
         <v>9</v>
@@ -1167,7 +1851,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E29" s="0">
         <v>2019</v>
@@ -1185,7 +1869,7 @@
         <v>11</v>
       </c>
       <c r="J29" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K29" s="0">
         <v>14</v>
@@ -1202,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E30" s="0">
         <v>2019</v>
@@ -1220,7 +1904,7 @@
         <v>12</v>
       </c>
       <c r="J30" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K30" s="0">
         <v>12</v>
@@ -1237,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E31" s="0">
         <v>2019</v>
@@ -1255,7 +1939,7 @@
         <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K31" s="0">
         <v>3</v>
@@ -1272,7 +1956,7 @@
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E32" s="0">
         <v>2019</v>
@@ -1290,7 +1974,7 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K32" s="0">
         <v>6</v>
@@ -1307,7 +1991,7 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E33" s="0">
         <v>2019</v>
@@ -1325,7 +2009,7 @@
         <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K33" s="0">
         <v>15</v>
@@ -1342,7 +2026,7 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E34" s="0">
         <v>2019</v>
@@ -1360,7 +2044,7 @@
         <v>16</v>
       </c>
       <c r="J34" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K34" s="0">
         <v>7</v>
@@ -1377,7 +2061,7 @@
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E35" s="0">
         <v>2019</v>
@@ -1395,7 +2079,7 @@
         <v>17</v>
       </c>
       <c r="J35" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K35" s="0">
         <v>13</v>
@@ -1412,7 +2096,7 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E36" s="0">
         <v>1990</v>
@@ -1430,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K36" s="0">
         <v>14</v>
@@ -1447,7 +2131,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E37" s="0">
         <v>1990</v>
@@ -1465,7 +2149,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K37" s="0">
         <v>15</v>
@@ -1482,7 +2166,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E38" s="0">
         <v>1990</v>
@@ -1500,7 +2184,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K38" s="0">
         <v>2</v>
@@ -1517,7 +2201,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E39" s="0">
         <v>1990</v>
@@ -1535,7 +2219,7 @@
         <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K39" s="0">
         <v>1</v>
@@ -1552,7 +2236,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E40" s="0">
         <v>1990</v>
@@ -1570,7 +2254,7 @@
         <v>5</v>
       </c>
       <c r="J40" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K40" s="0">
         <v>8</v>
@@ -1587,7 +2271,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E41" s="0">
         <v>1990</v>
@@ -1605,7 +2289,7 @@
         <v>6</v>
       </c>
       <c r="J41" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K41" s="0">
         <v>9</v>
@@ -1622,7 +2306,7 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E42" s="0">
         <v>1990</v>
@@ -1640,7 +2324,7 @@
         <v>7</v>
       </c>
       <c r="J42" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K42" s="0">
         <v>5</v>
@@ -1657,7 +2341,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E43" s="0">
         <v>1990</v>
@@ -1675,7 +2359,7 @@
         <v>8</v>
       </c>
       <c r="J43" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K43" s="0">
         <v>4</v>
@@ -1692,7 +2376,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E44" s="0">
         <v>1990</v>
@@ -1710,7 +2394,7 @@
         <v>9</v>
       </c>
       <c r="J44" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K44" s="0">
         <v>17</v>
@@ -1727,7 +2411,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E45" s="0">
         <v>1990</v>
@@ -1745,7 +2429,7 @@
         <v>10</v>
       </c>
       <c r="J45" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K45" s="0">
         <v>11</v>
@@ -1762,7 +2446,7 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E46" s="0">
         <v>1990</v>
@@ -1780,7 +2464,7 @@
         <v>11</v>
       </c>
       <c r="J46" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K46" s="0">
         <v>10</v>
@@ -1797,7 +2481,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E47" s="0">
         <v>1990</v>
@@ -1815,7 +2499,7 @@
         <v>12</v>
       </c>
       <c r="J47" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K47" s="0">
         <v>13</v>
@@ -1832,7 +2516,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E48" s="0">
         <v>1990</v>
@@ -1850,7 +2534,7 @@
         <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K48" s="0">
         <v>3</v>
@@ -1867,7 +2551,7 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E49" s="0">
         <v>1990</v>
@@ -1885,7 +2569,7 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K49" s="0">
         <v>6</v>
@@ -1902,7 +2586,7 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E50" s="0">
         <v>1990</v>
@@ -1920,7 +2604,7 @@
         <v>15</v>
       </c>
       <c r="J50" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K50" s="0">
         <v>12</v>
@@ -1937,7 +2621,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E51" s="0">
         <v>1990</v>
@@ -1955,7 +2639,7 @@
         <v>16</v>
       </c>
       <c r="J51" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K51" s="0">
         <v>7</v>
@@ -1972,7 +2656,7 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E52" s="0">
         <v>1990</v>
@@ -1990,7 +2674,7 @@
         <v>17</v>
       </c>
       <c r="J52" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K52" s="0">
         <v>16</v>
@@ -2007,7 +2691,7 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E53" s="0">
         <v>2019</v>
@@ -2025,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K53" s="0">
         <v>16</v>
@@ -2042,7 +2726,7 @@
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E54" s="0">
         <v>2019</v>
@@ -2060,7 +2744,7 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K54" s="0">
         <v>14</v>
@@ -2077,7 +2761,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E55" s="0">
         <v>2019</v>
@@ -2095,7 +2779,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K55" s="0">
         <v>1</v>
@@ -2112,7 +2796,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E56" s="0">
         <v>2019</v>
@@ -2130,7 +2814,7 @@
         <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K56" s="0">
         <v>3</v>
@@ -2147,7 +2831,7 @@
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E57" s="0">
         <v>2019</v>
@@ -2165,7 +2849,7 @@
         <v>5</v>
       </c>
       <c r="J57" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K57" s="0">
         <v>8</v>
@@ -2182,7 +2866,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E58" s="0">
         <v>2019</v>
@@ -2200,7 +2884,7 @@
         <v>6</v>
       </c>
       <c r="J58" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K58" s="0">
         <v>10</v>
@@ -2217,7 +2901,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E59" s="0">
         <v>2019</v>
@@ -2235,7 +2919,7 @@
         <v>7</v>
       </c>
       <c r="J59" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K59" s="0">
         <v>4</v>
@@ -2252,7 +2936,7 @@
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E60" s="0">
         <v>2019</v>
@@ -2270,7 +2954,7 @@
         <v>8</v>
       </c>
       <c r="J60" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K60" s="0">
         <v>5</v>
@@ -2287,7 +2971,7 @@
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E61" s="0">
         <v>2019</v>
@@ -2305,7 +2989,7 @@
         <v>9</v>
       </c>
       <c r="J61" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K61" s="0">
         <v>12</v>
@@ -2322,7 +3006,7 @@
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E62" s="0">
         <v>2019</v>
@@ -2340,7 +3024,7 @@
         <v>10</v>
       </c>
       <c r="J62" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K62" s="0">
         <v>9</v>
@@ -2357,7 +3041,7 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E63" s="0">
         <v>2019</v>
@@ -2375,7 +3059,7 @@
         <v>11</v>
       </c>
       <c r="J63" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K63" s="0">
         <v>13</v>
@@ -2392,7 +3076,7 @@
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E64" s="0">
         <v>2019</v>
@@ -2410,7 +3094,7 @@
         <v>12</v>
       </c>
       <c r="J64" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K64" s="0">
         <v>11</v>
@@ -2427,7 +3111,7 @@
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E65" s="0">
         <v>2019</v>
@@ -2445,7 +3129,7 @@
         <v>13</v>
       </c>
       <c r="J65" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K65" s="0">
         <v>2</v>
@@ -2462,7 +3146,7 @@
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E66" s="0">
         <v>2019</v>
@@ -2480,7 +3164,7 @@
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K66" s="0">
         <v>6</v>
@@ -2497,7 +3181,7 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E67" s="0">
         <v>2019</v>
@@ -2515,7 +3199,7 @@
         <v>15</v>
       </c>
       <c r="J67" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K67" s="0">
         <v>17</v>
@@ -2532,7 +3216,7 @@
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E68" s="0">
         <v>2019</v>
@@ -2550,7 +3234,7 @@
         <v>16</v>
       </c>
       <c r="J68" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K68" s="0">
         <v>7</v>
@@ -2567,7 +3251,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E69" s="0">
         <v>2019</v>
@@ -2585,7 +3269,7 @@
         <v>17</v>
       </c>
       <c r="J69" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K69" s="0">
         <v>15</v>
@@ -2602,7 +3286,7 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E70" s="0">
         <v>1990</v>
@@ -2620,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K70" s="0">
         <v>14</v>
@@ -2637,7 +3321,7 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E71" s="0">
         <v>1990</v>
@@ -2655,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K71" s="0">
         <v>15</v>
@@ -2672,7 +3356,7 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E72" s="0">
         <v>1990</v>
@@ -2690,7 +3374,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K72" s="0">
         <v>2</v>
@@ -2707,7 +3391,7 @@
         <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E73" s="0">
         <v>1990</v>
@@ -2725,7 +3409,7 @@
         <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K73" s="0">
         <v>1</v>
@@ -2742,7 +3426,7 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E74" s="0">
         <v>1990</v>
@@ -2760,7 +3444,7 @@
         <v>5</v>
       </c>
       <c r="J74" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K74" s="0">
         <v>9</v>
@@ -2777,7 +3461,7 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E75" s="0">
         <v>1990</v>
@@ -2795,7 +3479,7 @@
         <v>6</v>
       </c>
       <c r="J75" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K75" s="0">
         <v>11</v>
@@ -2812,7 +3496,7 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E76" s="0">
         <v>1990</v>
@@ -2830,7 +3514,7 @@
         <v>7</v>
       </c>
       <c r="J76" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K76" s="0">
         <v>10</v>
@@ -2847,7 +3531,7 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E77" s="0">
         <v>1990</v>
@@ -2865,7 +3549,7 @@
         <v>8</v>
       </c>
       <c r="J77" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K77" s="0">
         <v>4</v>
@@ -2882,7 +3566,7 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E78" s="0">
         <v>1990</v>
@@ -2900,7 +3584,7 @@
         <v>9</v>
       </c>
       <c r="J78" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K78" s="0">
         <v>12</v>
@@ -2917,7 +3601,7 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E79" s="0">
         <v>1990</v>
@@ -2935,7 +3619,7 @@
         <v>10</v>
       </c>
       <c r="J79" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K79" s="0">
         <v>13</v>
@@ -2952,7 +3636,7 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E80" s="0">
         <v>1990</v>
@@ -2970,7 +3654,7 @@
         <v>11</v>
       </c>
       <c r="J80" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K80" s="0">
         <v>17</v>
@@ -2987,7 +3671,7 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E81" s="0">
         <v>1990</v>
@@ -3005,7 +3689,7 @@
         <v>12</v>
       </c>
       <c r="J81" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K81" s="0">
         <v>16</v>
@@ -3022,7 +3706,7 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E82" s="0">
         <v>1990</v>
@@ -3040,7 +3724,7 @@
         <v>13</v>
       </c>
       <c r="J82" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K82" s="0">
         <v>3</v>
@@ -3057,7 +3741,7 @@
         <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E83" s="0">
         <v>1990</v>
@@ -3075,7 +3759,7 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K83" s="0">
         <v>8</v>
@@ -3092,7 +3776,7 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E84" s="0">
         <v>1990</v>
@@ -3110,7 +3794,7 @@
         <v>15</v>
       </c>
       <c r="J84" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K84" s="0">
         <v>5</v>
@@ -3127,7 +3811,7 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E85" s="0">
         <v>1990</v>
@@ -3145,7 +3829,7 @@
         <v>16</v>
       </c>
       <c r="J85" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K85" s="0">
         <v>6</v>
@@ -3162,7 +3846,7 @@
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E86" s="0">
         <v>1990</v>
@@ -3180,7 +3864,7 @@
         <v>17</v>
       </c>
       <c r="J86" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K86" s="0">
         <v>7</v>
@@ -3197,7 +3881,7 @@
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E87" s="0">
         <v>2019</v>
@@ -3215,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K87" s="0">
         <v>17</v>
@@ -3232,7 +3916,7 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E88" s="0">
         <v>2019</v>
@@ -3250,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K88" s="0">
         <v>16</v>
@@ -3267,7 +3951,7 @@
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E89" s="0">
         <v>2019</v>
@@ -3285,7 +3969,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K89" s="0">
         <v>1</v>
@@ -3302,7 +3986,7 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E90" s="0">
         <v>2019</v>
@@ -3320,7 +4004,7 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K90" s="0">
         <v>2</v>
@@ -3337,7 +4021,7 @@
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E91" s="0">
         <v>2019</v>
@@ -3355,7 +4039,7 @@
         <v>5</v>
       </c>
       <c r="J91" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K91" s="0">
         <v>9</v>
@@ -3372,7 +4056,7 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E92" s="0">
         <v>2019</v>
@@ -3390,7 +4074,7 @@
         <v>6</v>
       </c>
       <c r="J92" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K92" s="0">
         <v>12</v>
@@ -3407,7 +4091,7 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E93" s="0">
         <v>2019</v>
@@ -3425,7 +4109,7 @@
         <v>7</v>
       </c>
       <c r="J93" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K93" s="0">
         <v>5</v>
@@ -3442,7 +4126,7 @@
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E94" s="0">
         <v>2019</v>
@@ -3460,7 +4144,7 @@
         <v>8</v>
       </c>
       <c r="J94" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K94" s="0">
         <v>4</v>
@@ -3477,7 +4161,7 @@
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E95" s="0">
         <v>2019</v>
@@ -3495,7 +4179,7 @@
         <v>9</v>
       </c>
       <c r="J95" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K95" s="0">
         <v>6</v>
@@ -3512,7 +4196,7 @@
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E96" s="0">
         <v>2019</v>
@@ -3530,7 +4214,7 @@
         <v>10</v>
       </c>
       <c r="J96" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K96" s="0">
         <v>8</v>
@@ -3547,7 +4231,7 @@
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E97" s="0">
         <v>2019</v>
@@ -3565,7 +4249,7 @@
         <v>11</v>
       </c>
       <c r="J97" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K97" s="0">
         <v>15</v>
@@ -3582,7 +4266,7 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E98" s="0">
         <v>2019</v>
@@ -3600,7 +4284,7 @@
         <v>12</v>
       </c>
       <c r="J98" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K98" s="0">
         <v>13</v>
@@ -3617,7 +4301,7 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E99" s="0">
         <v>2019</v>
@@ -3635,7 +4319,7 @@
         <v>13</v>
       </c>
       <c r="J99" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K99" s="0">
         <v>3</v>
@@ -3652,7 +4336,7 @@
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E100" s="0">
         <v>2019</v>
@@ -3670,7 +4354,7 @@
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K100" s="0">
         <v>10</v>
@@ -3687,7 +4371,7 @@
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E101" s="0">
         <v>2019</v>
@@ -3705,7 +4389,7 @@
         <v>15</v>
       </c>
       <c r="J101" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K101" s="0">
         <v>14</v>
@@ -3722,7 +4406,7 @@
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E102" s="0">
         <v>2019</v>
@@ -3740,7 +4424,7 @@
         <v>16</v>
       </c>
       <c r="J102" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K102" s="0">
         <v>7</v>
@@ -3757,7 +4441,7 @@
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E103" s="0">
         <v>2019</v>
@@ -3775,7 +4459,7 @@
         <v>17</v>
       </c>
       <c r="J103" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K103" s="0">
         <v>11</v>

--- a/output/Table 2.xlsx
+++ b/output/Table 2.xlsx
@@ -21,10 +21,19 @@
     <t>CMNN</t>
   </si>
   <si>
+    <t>NCDs</t>
+  </si>
+  <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>NCDs</t>
+    <t>Maternal &amp; neonatal</t>
+  </si>
+  <si>
+    <t>Respiratory infections</t>
+  </si>
+  <si>
+    <t>Neoplasms</t>
   </si>
   <si>
     <t>Cardiovascular</t>
@@ -33,51 +42,42 @@
     <t>Chronic respiratory</t>
   </si>
   <si>
+    <t>Digestive</t>
+  </si>
+  <si>
+    <t>Neurological</t>
+  </si>
+  <si>
+    <t>Mental</t>
+  </si>
+  <si>
+    <t>Substance use</t>
+  </si>
+  <si>
     <t>Diabetes &amp; kidney</t>
   </si>
   <si>
-    <t>Digestive</t>
-  </si>
-  <si>
-    <t>Maternal &amp; neonatal</t>
-  </si>
-  <si>
-    <t>Mental</t>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>Sense organ</t>
   </si>
   <si>
     <t>Musculoskeletal</t>
   </si>
   <si>
-    <t>Neoplasms</t>
-  </si>
-  <si>
-    <t>Neurological</t>
-  </si>
-  <si>
     <t>Other NCD</t>
   </si>
   <si>
-    <t>Respiratory infections</t>
+    <t>Transport injuries</t>
+  </si>
+  <si>
+    <t>Unintentional injuries</t>
   </si>
   <si>
     <t>Self-harm and violence</t>
   </si>
   <si>
-    <t>Sense organ</t>
-  </si>
-  <si>
-    <t>Skin</t>
-  </si>
-  <si>
-    <t>Substance use</t>
-  </si>
-  <si>
-    <t>Transport injuries</t>
-  </si>
-  <si>
-    <t>Unintentional injuries</t>
-  </si>
-  <si>
     <t>1990 Value</t>
   </si>
   <si>
@@ -102,10 +102,19 @@
     <t>3 to 3</t>
   </si>
   <si>
+    <t>1 to 1</t>
+  </si>
+  <si>
     <t>2 to 2</t>
   </si>
   <si>
-    <t>1 to 1</t>
+    <t>15 to 17</t>
+  </si>
+  <si>
+    <t>17 to 16</t>
+  </si>
+  <si>
+    <t>2 to 1</t>
   </si>
   <si>
     <t>1 to 2</t>
@@ -114,46 +123,37 @@
     <t>9 to 8</t>
   </si>
   <si>
+    <t>11 to 11</t>
+  </si>
+  <si>
+    <t>6 to 4</t>
+  </si>
+  <si>
+    <t>4 to 5</t>
+  </si>
+  <si>
+    <t>14 to 10</t>
+  </si>
+  <si>
     <t>12 to 9</t>
   </si>
   <si>
-    <t>11 to 11</t>
-  </si>
-  <si>
-    <t>15 to 17</t>
-  </si>
-  <si>
-    <t>4 to 5</t>
-  </si>
-  <si>
-    <t>2 to 1</t>
-  </si>
-  <si>
-    <t>6 to 4</t>
+    <t>13 to 14</t>
+  </si>
+  <si>
+    <t>16 to 12</t>
   </si>
   <si>
     <t>5 to 6</t>
   </si>
   <si>
-    <t>17 to 16</t>
+    <t>8 to 15</t>
+  </si>
+  <si>
+    <t>7 to 7</t>
   </si>
   <si>
     <t>10 to 13</t>
-  </si>
-  <si>
-    <t>16 to 12</t>
-  </si>
-  <si>
-    <t>13 to 14</t>
-  </si>
-  <si>
-    <t>14 to 10</t>
-  </si>
-  <si>
-    <t>8 to 15</t>
-  </si>
-  <si>
-    <t>7 to 7</t>
   </si>
 </sst>
 </file>
@@ -257,22 +257,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>3187.10009765625</v>
+        <v>21940.69921875</v>
       </c>
       <c r="C3" s="0">
-        <v>2901.39990234375</v>
+        <v>19303.5</v>
       </c>
       <c r="D3" s="0">
-        <v>3565.800048828125</v>
+        <v>24979.5</v>
       </c>
       <c r="E3" s="0">
-        <v>2518.39990234375</v>
+        <v>23641.30078125</v>
       </c>
       <c r="F3" s="0">
-        <v>2170.39990234375</v>
+        <v>20598.099609375</v>
       </c>
       <c r="G3" s="0">
-        <v>2959.5</v>
+        <v>27092.900390625</v>
       </c>
       <c r="H3" t="s">
         <v>29</v>
@@ -283,22 +283,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>21940.69921875</v>
+        <v>3187.10009765625</v>
       </c>
       <c r="C4" s="0">
-        <v>19303.5</v>
+        <v>2901.39990234375</v>
       </c>
       <c r="D4" s="0">
-        <v>24979.5</v>
+        <v>3565.800048828125</v>
       </c>
       <c r="E4" s="0">
-        <v>23641.30078125</v>
+        <v>2518.39990234375</v>
       </c>
       <c r="F4" s="0">
-        <v>20598.099609375</v>
+        <v>2170.39990234375</v>
       </c>
       <c r="G4" s="0">
-        <v>27092.900390625</v>
+        <v>2959.5</v>
       </c>
       <c r="H4" t="s">
         <v>30</v>
@@ -309,22 +309,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>5232</v>
+        <v>563.0999755859375</v>
       </c>
       <c r="C5" s="0">
-        <v>4960.39990234375</v>
+        <v>510.89999389648438</v>
       </c>
       <c r="D5" s="0">
-        <v>5456.10009765625</v>
+        <v>622.5999755859375</v>
       </c>
       <c r="E5" s="0">
-        <v>3840.60009765625</v>
+        <v>377.79998779296875</v>
       </c>
       <c r="F5" s="0">
-        <v>3513.199951171875</v>
+        <v>331.39999389648438</v>
       </c>
       <c r="G5" s="0">
-        <v>4130.39990234375</v>
+        <v>430.39999389648438</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
@@ -335,22 +335,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>987.29998779296875</v>
+        <v>507</v>
       </c>
       <c r="C6" s="0">
-        <v>879.29998779296875</v>
+        <v>454</v>
       </c>
       <c r="D6" s="0">
-        <v>1110.5999755859375</v>
+        <v>579</v>
       </c>
       <c r="E6" s="0">
-        <v>1222.199951171875</v>
+        <v>425</v>
       </c>
       <c r="F6" s="0">
-        <v>1064.5999755859375</v>
+        <v>362.5</v>
       </c>
       <c r="G6" s="0">
-        <v>1368.0999755859375</v>
+        <v>493.20001220703125</v>
       </c>
       <c r="H6" t="s">
         <v>32</v>
@@ -361,22 +361,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>714</v>
+        <v>4710.89990234375</v>
       </c>
       <c r="C7" s="0">
-        <v>634.29998779296875</v>
+        <v>4572.2001953125</v>
       </c>
       <c r="D7" s="0">
-        <v>808.5</v>
+        <v>4819.7001953125</v>
       </c>
       <c r="E7" s="0">
-        <v>1216.300048828125</v>
+        <v>5319.7998046875</v>
       </c>
       <c r="F7" s="0">
-        <v>1012.7000122070312</v>
+        <v>5025</v>
       </c>
       <c r="G7" s="0">
-        <v>1443.5</v>
+        <v>5576.89990234375</v>
       </c>
       <c r="H7" t="s">
         <v>33</v>
@@ -387,22 +387,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>803.70001220703125</v>
+        <v>5232</v>
       </c>
       <c r="C8" s="0">
-        <v>732.5999755859375</v>
+        <v>4960.39990234375</v>
       </c>
       <c r="D8" s="0">
-        <v>888.5999755859375</v>
+        <v>5456.10009765625</v>
       </c>
       <c r="E8" s="0">
-        <v>905.20001220703125</v>
+        <v>3840.60009765625</v>
       </c>
       <c r="F8" s="0">
-        <v>817.29998779296875</v>
+        <v>3513.199951171875</v>
       </c>
       <c r="G8" s="0">
-        <v>1005.7999877929688</v>
+        <v>4130.39990234375</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
@@ -413,22 +413,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>563.0999755859375</v>
+        <v>987.29998779296875</v>
       </c>
       <c r="C9" s="0">
-        <v>510.89999389648438</v>
+        <v>879.29998779296875</v>
       </c>
       <c r="D9" s="0">
-        <v>622.5999755859375</v>
+        <v>1110.5999755859375</v>
       </c>
       <c r="E9" s="0">
-        <v>377.79998779296875</v>
+        <v>1222.199951171875</v>
       </c>
       <c r="F9" s="0">
-        <v>331.39999389648438</v>
+        <v>1064.5999755859375</v>
       </c>
       <c r="G9" s="0">
-        <v>430.39999389648438</v>
+        <v>1368.0999755859375</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
@@ -439,22 +439,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>1870.9000244140625</v>
+        <v>803.70001220703125</v>
       </c>
       <c r="C10" s="0">
-        <v>1367.0999755859375</v>
+        <v>732.5999755859375</v>
       </c>
       <c r="D10" s="0">
-        <v>2451.5</v>
+        <v>888.5999755859375</v>
       </c>
       <c r="E10" s="0">
-        <v>1821</v>
+        <v>905.20001220703125</v>
       </c>
       <c r="F10" s="0">
-        <v>1333.800048828125</v>
+        <v>817.29998779296875</v>
       </c>
       <c r="G10" s="0">
-        <v>2368.300048828125</v>
+        <v>1005.7999877929688</v>
       </c>
       <c r="H10" t="s">
         <v>36</v>
@@ -465,25 +465,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>2782.60009765625</v>
+        <v>1487.9000244140625</v>
       </c>
       <c r="C11" s="0">
-        <v>2019.9000244140625</v>
+        <v>825.9000244140625</v>
       </c>
       <c r="D11" s="0">
-        <v>3641.199951171875</v>
+        <v>2436.60009765625</v>
       </c>
       <c r="E11" s="0">
-        <v>3569.800048828125</v>
+        <v>1881.5999755859375</v>
       </c>
       <c r="F11" s="0">
-        <v>2573.60009765625</v>
+        <v>1150.5999755859375</v>
       </c>
       <c r="G11" s="0">
-        <v>4712.60009765625</v>
+        <v>2989.699951171875</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -491,25 +491,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>4710.89990234375</v>
+        <v>1870.9000244140625</v>
       </c>
       <c r="C12" s="0">
-        <v>4572.2001953125</v>
+        <v>1367.0999755859375</v>
       </c>
       <c r="D12" s="0">
-        <v>4819.7001953125</v>
+        <v>2451.5</v>
       </c>
       <c r="E12" s="0">
-        <v>5319.7998046875</v>
+        <v>1821</v>
       </c>
       <c r="F12" s="0">
-        <v>5025</v>
+        <v>1333.800048828125</v>
       </c>
       <c r="G12" s="0">
-        <v>5576.89990234375</v>
+        <v>2368.300048828125</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -517,25 +517,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>1487.9000244140625</v>
+        <v>597.5</v>
       </c>
       <c r="C13" s="0">
-        <v>825.9000244140625</v>
+        <v>470.10000610351562</v>
       </c>
       <c r="D13" s="0">
-        <v>2436.60009765625</v>
+        <v>736.9000244140625</v>
       </c>
       <c r="E13" s="0">
-        <v>1881.5999755859375</v>
+        <v>1066.5</v>
       </c>
       <c r="F13" s="0">
-        <v>1150.5999755859375</v>
+        <v>887.0999755859375</v>
       </c>
       <c r="G13" s="0">
-        <v>2989.699951171875</v>
+        <v>1268.300048828125</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -543,25 +543,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>1590</v>
+        <v>714</v>
       </c>
       <c r="C14" s="0">
-        <v>1292.699951171875</v>
+        <v>634.29998779296875</v>
       </c>
       <c r="D14" s="0">
-        <v>1993.5999755859375</v>
+        <v>808.5</v>
       </c>
       <c r="E14" s="0">
-        <v>1416.5999755859375</v>
+        <v>1216.300048828125</v>
       </c>
       <c r="F14" s="0">
-        <v>1098.199951171875</v>
+        <v>1012.7000122070312</v>
       </c>
       <c r="G14" s="0">
-        <v>1828.199951171875</v>
+        <v>1443.5</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -569,25 +569,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>507</v>
+        <v>616.79998779296875</v>
       </c>
       <c r="C15" s="0">
-        <v>454</v>
+        <v>429.10000610351562</v>
       </c>
       <c r="D15" s="0">
-        <v>579</v>
+        <v>872</v>
       </c>
       <c r="E15" s="0">
-        <v>425</v>
+        <v>634.0999755859375</v>
       </c>
       <c r="F15" s="0">
-        <v>362.5</v>
+        <v>441.70001220703125</v>
       </c>
       <c r="G15" s="0">
-        <v>493.20001220703125</v>
+        <v>899</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -595,25 +595,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>921.9000244140625</v>
+        <v>547.20001220703125</v>
       </c>
       <c r="C16" s="0">
-        <v>893.20001220703125</v>
+        <v>376.60000610351562</v>
       </c>
       <c r="D16" s="0">
-        <v>950.79998779296875</v>
+        <v>772.29998779296875</v>
       </c>
       <c r="E16" s="0">
-        <v>706.4000244140625</v>
+        <v>747.70001220703125</v>
       </c>
       <c r="F16" s="0">
-        <v>668.4000244140625</v>
+        <v>522.20001220703125</v>
       </c>
       <c r="G16" s="0">
-        <v>745.0999755859375</v>
+        <v>1036.300048828125</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -621,25 +621,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>547.20001220703125</v>
+        <v>2782.60009765625</v>
       </c>
       <c r="C17" s="0">
-        <v>376.60000610351562</v>
+        <v>2019.9000244140625</v>
       </c>
       <c r="D17" s="0">
-        <v>772.29998779296875</v>
+        <v>3641.199951171875</v>
       </c>
       <c r="E17" s="0">
-        <v>747.70001220703125</v>
+        <v>3569.800048828125</v>
       </c>
       <c r="F17" s="0">
-        <v>522.20001220703125</v>
+        <v>2573.60009765625</v>
       </c>
       <c r="G17" s="0">
-        <v>1036.300048828125</v>
+        <v>4712.60009765625</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -647,22 +647,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>616.79998779296875</v>
+        <v>1590</v>
       </c>
       <c r="C18" s="0">
-        <v>429.10000610351562</v>
+        <v>1292.699951171875</v>
       </c>
       <c r="D18" s="0">
-        <v>872</v>
+        <v>1993.5999755859375</v>
       </c>
       <c r="E18" s="0">
-        <v>634.0999755859375</v>
+        <v>1416.5999755859375</v>
       </c>
       <c r="F18" s="0">
-        <v>441.70001220703125</v>
+        <v>1098.199951171875</v>
       </c>
       <c r="G18" s="0">
-        <v>899</v>
+        <v>1828.199951171875</v>
       </c>
       <c r="H18" t="s">
         <v>43</v>
@@ -673,22 +673,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>597.5</v>
+        <v>1066.699951171875</v>
       </c>
       <c r="C19" s="0">
-        <v>470.10000610351562</v>
+        <v>1004.9000244140625</v>
       </c>
       <c r="D19" s="0">
-        <v>736.9000244140625</v>
+        <v>1138</v>
       </c>
       <c r="E19" s="0">
-        <v>1066.5</v>
+        <v>502.20001220703125</v>
       </c>
       <c r="F19" s="0">
-        <v>887.0999755859375</v>
+        <v>450.89999389648438</v>
       </c>
       <c r="G19" s="0">
-        <v>1268.300048828125</v>
+        <v>561.9000244140625</v>
       </c>
       <c r="H19" t="s">
         <v>44</v>
@@ -699,22 +699,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>1066.699951171875</v>
+        <v>1198.5</v>
       </c>
       <c r="C20" s="0">
-        <v>1004.9000244140625</v>
+        <v>983.29998779296875</v>
       </c>
       <c r="D20" s="0">
-        <v>1138</v>
+        <v>1483.9000244140625</v>
       </c>
       <c r="E20" s="0">
-        <v>502.20001220703125</v>
+        <v>1309.800048828125</v>
       </c>
       <c r="F20" s="0">
-        <v>450.89999389648438</v>
+        <v>1027.699951171875</v>
       </c>
       <c r="G20" s="0">
-        <v>561.9000244140625</v>
+        <v>1676.5999755859375</v>
       </c>
       <c r="H20" t="s">
         <v>45</v>
@@ -725,22 +725,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>1198.5</v>
+        <v>921.9000244140625</v>
       </c>
       <c r="C21" s="0">
-        <v>983.29998779296875</v>
+        <v>893.20001220703125</v>
       </c>
       <c r="D21" s="0">
-        <v>1483.9000244140625</v>
+        <v>950.79998779296875</v>
       </c>
       <c r="E21" s="0">
-        <v>1309.800048828125</v>
+        <v>706.4000244140625</v>
       </c>
       <c r="F21" s="0">
-        <v>1027.699951171875</v>
+        <v>668.4000244140625</v>
       </c>
       <c r="G21" s="0">
-        <v>1676.5999755859375</v>
+        <v>745.0999755859375</v>
       </c>
       <c r="H21" t="s">
         <v>46</v>

--- a/output/Table 2.xlsx
+++ b/output/Table 2.xlsx
@@ -13,71 +13,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Cause</t>
   </si>
   <si>
-    <t>CMNN</t>
-  </si>
-  <si>
-    <t>NCDs</t>
+    <t>MNC</t>
+  </si>
+  <si>
+    <t>Non-communicable</t>
   </si>
   <si>
     <t>Injuries</t>
   </si>
   <si>
+    <t>Neoplasms</t>
+  </si>
+  <si>
+    <t>Cardiovascular</t>
+  </si>
+  <si>
+    <t>Musculoskeletal</t>
+  </si>
+  <si>
+    <t>Neurological</t>
+  </si>
+  <si>
+    <t>Mental</t>
+  </si>
+  <si>
+    <t>Other NCD</t>
+  </si>
+  <si>
+    <t>Unintentional injuries</t>
+  </si>
+  <si>
+    <t>Chronic respiratory</t>
+  </si>
+  <si>
+    <t>Diabetes &amp; CKD</t>
+  </si>
+  <si>
+    <t>Substance use</t>
+  </si>
+  <si>
+    <t>Digestive</t>
+  </si>
+  <si>
+    <t>Sense organ</t>
+  </si>
+  <si>
+    <t>Self-harm and violence</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>Transport injuries</t>
+  </si>
+  <si>
+    <t>Respiratory infections</t>
+  </si>
+  <si>
     <t>Maternal &amp; neonatal</t>
   </si>
   <si>
-    <t>Respiratory infections</t>
-  </si>
-  <si>
-    <t>Neoplasms</t>
-  </si>
-  <si>
-    <t>Cardiovascular</t>
-  </si>
-  <si>
-    <t>Chronic respiratory</t>
-  </si>
-  <si>
-    <t>Digestive</t>
-  </si>
-  <si>
-    <t>Neurological</t>
-  </si>
-  <si>
-    <t>Mental</t>
-  </si>
-  <si>
-    <t>Substance use</t>
-  </si>
-  <si>
-    <t>Diabetes &amp; kidney</t>
-  </si>
-  <si>
-    <t>Skin</t>
-  </si>
-  <si>
-    <t>Sense organ</t>
-  </si>
-  <si>
-    <t>Musculoskeletal</t>
-  </si>
-  <si>
-    <t>Other NCD</t>
-  </si>
-  <si>
-    <t>Transport injuries</t>
-  </si>
-  <si>
-    <t>Unintentional injuries</t>
-  </si>
-  <si>
-    <t>Self-harm and violence</t>
-  </si>
-  <si>
     <t>1990 Value</t>
   </si>
   <si>
@@ -96,6 +96,9 @@
     <t>2019 Upper_UL</t>
   </si>
   <si>
+    <t>Percent change</t>
+  </si>
+  <si>
     <t>Rank change</t>
   </si>
   <si>
@@ -108,52 +111,52 @@
     <t>2 to 2</t>
   </si>
   <si>
+    <t>2 to 1</t>
+  </si>
+  <si>
+    <t>1 to 2</t>
+  </si>
+  <si>
+    <t>6 to 4</t>
+  </si>
+  <si>
+    <t>4 to 5</t>
+  </si>
+  <si>
+    <t>5 to 6</t>
+  </si>
+  <si>
+    <t>7 to 7</t>
+  </si>
+  <si>
+    <t>9 to 8</t>
+  </si>
+  <si>
+    <t>12 to 9</t>
+  </si>
+  <si>
+    <t>14 to 10</t>
+  </si>
+  <si>
+    <t>11 to 11</t>
+  </si>
+  <si>
+    <t>16 to 12</t>
+  </si>
+  <si>
+    <t>10 to 13</t>
+  </si>
+  <si>
+    <t>13 to 14</t>
+  </si>
+  <si>
+    <t>8 to 15</t>
+  </si>
+  <si>
+    <t>17 to 16</t>
+  </si>
+  <si>
     <t>15 to 17</t>
-  </si>
-  <si>
-    <t>17 to 16</t>
-  </si>
-  <si>
-    <t>2 to 1</t>
-  </si>
-  <si>
-    <t>1 to 2</t>
-  </si>
-  <si>
-    <t>9 to 8</t>
-  </si>
-  <si>
-    <t>11 to 11</t>
-  </si>
-  <si>
-    <t>6 to 4</t>
-  </si>
-  <si>
-    <t>4 to 5</t>
-  </si>
-  <si>
-    <t>14 to 10</t>
-  </si>
-  <si>
-    <t>12 to 9</t>
-  </si>
-  <si>
-    <t>13 to 14</t>
-  </si>
-  <si>
-    <t>16 to 12</t>
-  </si>
-  <si>
-    <t>5 to 6</t>
-  </si>
-  <si>
-    <t>8 to 15</t>
-  </si>
-  <si>
-    <t>7 to 7</t>
-  </si>
-  <si>
-    <t>10 to 13</t>
   </si>
 </sst>
 </file>
@@ -197,7 +200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -225,6 +228,9 @@
       <c r="H1" t="s">
         <v>27</v>
       </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -248,8 +254,11 @@
       <c r="G2" s="0">
         <v>1345.699951171875</v>
       </c>
-      <c r="H2" t="s">
-        <v>28</v>
+      <c r="H2" s="0">
+        <v>-22.100000381469727</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -274,8 +283,11 @@
       <c r="G3" s="0">
         <v>27092.900390625</v>
       </c>
-      <c r="H3" t="s">
-        <v>29</v>
+      <c r="H3" s="0">
+        <v>7.8000001907348633</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -300,8 +312,11 @@
       <c r="G4" s="0">
         <v>2959.5</v>
       </c>
-      <c r="H4" t="s">
-        <v>30</v>
+      <c r="H4" s="0">
+        <v>-21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -309,25 +324,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>563.0999755859375</v>
+        <v>4710.89990234375</v>
       </c>
       <c r="C5" s="0">
-        <v>510.89999389648438</v>
+        <v>4572.2001953125</v>
       </c>
       <c r="D5" s="0">
-        <v>622.5999755859375</v>
+        <v>4819.7001953125</v>
       </c>
       <c r="E5" s="0">
-        <v>377.79998779296875</v>
+        <v>5319.7998046875</v>
       </c>
       <c r="F5" s="0">
-        <v>331.39999389648438</v>
+        <v>5025</v>
       </c>
       <c r="G5" s="0">
-        <v>430.39999389648438</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
+        <v>5576.89990234375</v>
+      </c>
+      <c r="H5" s="0">
+        <v>12.899999618530273</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -335,25 +353,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>507</v>
+        <v>5232</v>
       </c>
       <c r="C6" s="0">
-        <v>454</v>
+        <v>4960.39990234375</v>
       </c>
       <c r="D6" s="0">
-        <v>579</v>
+        <v>5456.10009765625</v>
       </c>
       <c r="E6" s="0">
-        <v>425</v>
+        <v>3840.60009765625</v>
       </c>
       <c r="F6" s="0">
-        <v>362.5</v>
+        <v>3513.199951171875</v>
       </c>
       <c r="G6" s="0">
-        <v>493.20001220703125</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
+        <v>4130.39990234375</v>
+      </c>
+      <c r="H6" s="0">
+        <v>-26.600000381469727</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -361,25 +382,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>4710.89990234375</v>
+        <v>2782.60009765625</v>
       </c>
       <c r="C7" s="0">
-        <v>4572.2001953125</v>
+        <v>2019.9000244140625</v>
       </c>
       <c r="D7" s="0">
-        <v>4819.7001953125</v>
+        <v>3641.199951171875</v>
       </c>
       <c r="E7" s="0">
-        <v>5319.7998046875</v>
+        <v>3569.800048828125</v>
       </c>
       <c r="F7" s="0">
-        <v>5025</v>
+        <v>2573.60009765625</v>
       </c>
       <c r="G7" s="0">
-        <v>5576.89990234375</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
+        <v>4712.60009765625</v>
+      </c>
+      <c r="H7" s="0">
+        <v>28.299999237060547</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -387,24 +411,27 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>5232</v>
+        <v>1487.9000244140625</v>
       </c>
       <c r="C8" s="0">
-        <v>4960.39990234375</v>
+        <v>825.9000244140625</v>
       </c>
       <c r="D8" s="0">
-        <v>5456.10009765625</v>
+        <v>2436.60009765625</v>
       </c>
       <c r="E8" s="0">
-        <v>3840.60009765625</v>
+        <v>1881.5999755859375</v>
       </c>
       <c r="F8" s="0">
-        <v>3513.199951171875</v>
+        <v>1150.5999755859375</v>
       </c>
       <c r="G8" s="0">
-        <v>4130.39990234375</v>
-      </c>
-      <c r="H8" t="s">
+        <v>2989.699951171875</v>
+      </c>
+      <c r="H8" s="0">
+        <v>26.5</v>
+      </c>
+      <c r="I8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -413,24 +440,27 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>987.29998779296875</v>
+        <v>1870.9000244140625</v>
       </c>
       <c r="C9" s="0">
-        <v>879.29998779296875</v>
+        <v>1367.0999755859375</v>
       </c>
       <c r="D9" s="0">
-        <v>1110.5999755859375</v>
+        <v>2451.5</v>
       </c>
       <c r="E9" s="0">
-        <v>1222.199951171875</v>
+        <v>1821</v>
       </c>
       <c r="F9" s="0">
-        <v>1064.5999755859375</v>
+        <v>1333.800048828125</v>
       </c>
       <c r="G9" s="0">
-        <v>1368.0999755859375</v>
-      </c>
-      <c r="H9" t="s">
+        <v>2368.300048828125</v>
+      </c>
+      <c r="H9" s="0">
+        <v>-2.7000000476837158</v>
+      </c>
+      <c r="I9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -439,24 +469,27 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>803.70001220703125</v>
+        <v>1590</v>
       </c>
       <c r="C10" s="0">
-        <v>732.5999755859375</v>
+        <v>1292.699951171875</v>
       </c>
       <c r="D10" s="0">
-        <v>888.5999755859375</v>
+        <v>1993.5999755859375</v>
       </c>
       <c r="E10" s="0">
-        <v>905.20001220703125</v>
+        <v>1416.5999755859375</v>
       </c>
       <c r="F10" s="0">
-        <v>817.29998779296875</v>
+        <v>1098.199951171875</v>
       </c>
       <c r="G10" s="0">
-        <v>1005.7999877929688</v>
-      </c>
-      <c r="H10" t="s">
+        <v>1828.199951171875</v>
+      </c>
+      <c r="H10" s="0">
+        <v>-10.899999618530273</v>
+      </c>
+      <c r="I10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -465,24 +498,27 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>1487.9000244140625</v>
+        <v>1198.5</v>
       </c>
       <c r="C11" s="0">
-        <v>825.9000244140625</v>
+        <v>983.29998779296875</v>
       </c>
       <c r="D11" s="0">
-        <v>2436.60009765625</v>
+        <v>1483.9000244140625</v>
       </c>
       <c r="E11" s="0">
-        <v>1881.5999755859375</v>
+        <v>1309.800048828125</v>
       </c>
       <c r="F11" s="0">
-        <v>1150.5999755859375</v>
+        <v>1027.699951171875</v>
       </c>
       <c r="G11" s="0">
-        <v>2989.699951171875</v>
-      </c>
-      <c r="H11" t="s">
+        <v>1676.5999755859375</v>
+      </c>
+      <c r="H11" s="0">
+        <v>9.3000001907348633</v>
+      </c>
+      <c r="I11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -491,24 +527,27 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>1870.9000244140625</v>
+        <v>987.29998779296875</v>
       </c>
       <c r="C12" s="0">
-        <v>1367.0999755859375</v>
+        <v>879.29998779296875</v>
       </c>
       <c r="D12" s="0">
-        <v>2451.5</v>
+        <v>1110.5999755859375</v>
       </c>
       <c r="E12" s="0">
-        <v>1821</v>
+        <v>1222.199951171875</v>
       </c>
       <c r="F12" s="0">
-        <v>1333.800048828125</v>
+        <v>1064.5999755859375</v>
       </c>
       <c r="G12" s="0">
-        <v>2368.300048828125</v>
-      </c>
-      <c r="H12" t="s">
+        <v>1368.0999755859375</v>
+      </c>
+      <c r="H12" s="0">
+        <v>23.799999237060547</v>
+      </c>
+      <c r="I12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -517,24 +556,27 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>597.5</v>
+        <v>714</v>
       </c>
       <c r="C13" s="0">
-        <v>470.10000610351562</v>
+        <v>634.29998779296875</v>
       </c>
       <c r="D13" s="0">
-        <v>736.9000244140625</v>
+        <v>808.5</v>
       </c>
       <c r="E13" s="0">
-        <v>1066.5</v>
+        <v>1216.300048828125</v>
       </c>
       <c r="F13" s="0">
-        <v>887.0999755859375</v>
+        <v>1012.7000122070312</v>
       </c>
       <c r="G13" s="0">
-        <v>1268.300048828125</v>
-      </c>
-      <c r="H13" t="s">
+        <v>1443.5</v>
+      </c>
+      <c r="H13" s="0">
+        <v>70.300003051757812</v>
+      </c>
+      <c r="I13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -543,24 +585,27 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>714</v>
+        <v>597.5</v>
       </c>
       <c r="C14" s="0">
-        <v>634.29998779296875</v>
+        <v>470.10000610351562</v>
       </c>
       <c r="D14" s="0">
-        <v>808.5</v>
+        <v>736.9000244140625</v>
       </c>
       <c r="E14" s="0">
-        <v>1216.300048828125</v>
+        <v>1066.5</v>
       </c>
       <c r="F14" s="0">
-        <v>1012.7000122070312</v>
+        <v>887.0999755859375</v>
       </c>
       <c r="G14" s="0">
-        <v>1443.5</v>
-      </c>
-      <c r="H14" t="s">
+        <v>1268.300048828125</v>
+      </c>
+      <c r="H14" s="0">
+        <v>78.5</v>
+      </c>
+      <c r="I14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -569,24 +614,27 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>616.79998779296875</v>
+        <v>803.70001220703125</v>
       </c>
       <c r="C15" s="0">
-        <v>429.10000610351562</v>
+        <v>732.5999755859375</v>
       </c>
       <c r="D15" s="0">
-        <v>872</v>
+        <v>888.5999755859375</v>
       </c>
       <c r="E15" s="0">
-        <v>634.0999755859375</v>
+        <v>905.20001220703125</v>
       </c>
       <c r="F15" s="0">
-        <v>441.70001220703125</v>
+        <v>817.29998779296875</v>
       </c>
       <c r="G15" s="0">
-        <v>899</v>
-      </c>
-      <c r="H15" t="s">
+        <v>1005.7999877929688</v>
+      </c>
+      <c r="H15" s="0">
+        <v>12.600000381469727</v>
+      </c>
+      <c r="I15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -612,7 +660,10 @@
       <c r="G16" s="0">
         <v>1036.300048828125</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="0">
+        <v>36.599998474121094</v>
+      </c>
+      <c r="I16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -621,25 +672,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>2782.60009765625</v>
+        <v>921.9000244140625</v>
       </c>
       <c r="C17" s="0">
-        <v>2019.9000244140625</v>
+        <v>893.20001220703125</v>
       </c>
       <c r="D17" s="0">
-        <v>3641.199951171875</v>
+        <v>950.79998779296875</v>
       </c>
       <c r="E17" s="0">
-        <v>3569.800048828125</v>
+        <v>706.4000244140625</v>
       </c>
       <c r="F17" s="0">
-        <v>2573.60009765625</v>
+        <v>668.4000244140625</v>
       </c>
       <c r="G17" s="0">
-        <v>4712.60009765625</v>
-      </c>
-      <c r="H17" t="s">
-        <v>28</v>
+        <v>745.0999755859375</v>
+      </c>
+      <c r="H17" s="0">
+        <v>-23.399999618530273</v>
+      </c>
+      <c r="I17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -647,25 +701,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>1590</v>
+        <v>616.79998779296875</v>
       </c>
       <c r="C18" s="0">
-        <v>1292.699951171875</v>
+        <v>429.10000610351562</v>
       </c>
       <c r="D18" s="0">
-        <v>1993.5999755859375</v>
+        <v>872</v>
       </c>
       <c r="E18" s="0">
-        <v>1416.5999755859375</v>
+        <v>634.0999755859375</v>
       </c>
       <c r="F18" s="0">
-        <v>1098.199951171875</v>
+        <v>441.70001220703125</v>
       </c>
       <c r="G18" s="0">
-        <v>1828.199951171875</v>
-      </c>
-      <c r="H18" t="s">
-        <v>43</v>
+        <v>899</v>
+      </c>
+      <c r="H18" s="0">
+        <v>2.7999999523162842</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -690,8 +747,11 @@
       <c r="G19" s="0">
         <v>561.9000244140625</v>
       </c>
-      <c r="H19" t="s">
-        <v>44</v>
+      <c r="H19" s="0">
+        <v>-52.900001525878906</v>
+      </c>
+      <c r="I19" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -699,25 +759,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>1198.5</v>
+        <v>507</v>
       </c>
       <c r="C20" s="0">
-        <v>983.29998779296875</v>
+        <v>454</v>
       </c>
       <c r="D20" s="0">
-        <v>1483.9000244140625</v>
+        <v>579</v>
       </c>
       <c r="E20" s="0">
-        <v>1309.800048828125</v>
+        <v>425</v>
       </c>
       <c r="F20" s="0">
-        <v>1027.699951171875</v>
+        <v>362.5</v>
       </c>
       <c r="G20" s="0">
-        <v>1676.5999755859375</v>
-      </c>
-      <c r="H20" t="s">
-        <v>45</v>
+        <v>493.20001220703125</v>
+      </c>
+      <c r="H20" s="0">
+        <v>-16.200000762939453</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21">
@@ -725,25 +788,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>921.9000244140625</v>
+        <v>563.0999755859375</v>
       </c>
       <c r="C21" s="0">
-        <v>893.20001220703125</v>
+        <v>510.89999389648438</v>
       </c>
       <c r="D21" s="0">
-        <v>950.79998779296875</v>
+        <v>622.5999755859375</v>
       </c>
       <c r="E21" s="0">
-        <v>706.4000244140625</v>
+        <v>377.79998779296875</v>
       </c>
       <c r="F21" s="0">
-        <v>668.4000244140625</v>
+        <v>331.39999389648438</v>
       </c>
       <c r="G21" s="0">
-        <v>745.0999755859375</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
+        <v>430.39999389648438</v>
+      </c>
+      <c r="H21" s="0">
+        <v>-32.900001525878906</v>
+      </c>
+      <c r="I21" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
